--- a/GroceryApplication/src/test/resources/TestData.xlsx
+++ b/GroceryApplication/src/test/resources/TestData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBAF7512-142C-4C37-8A7D-D8E591571EE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7D0D39B-7006-424D-8728-2E0E22B1B7B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="NewsPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Username</t>
   </si>
@@ -41,6 +42,12 @@
   </si>
   <si>
     <t>adminne</t>
+  </si>
+  <si>
+    <t>Test design is a process that defines how testing has to be done. It involves the process of identifying the testing techniques, test scenarios, test cases, test data, and expected test results.</t>
+  </si>
+  <si>
+    <t>Content</t>
   </si>
 </sst>
 </file>
@@ -76,8 +83,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,8 +370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -409,4 +419,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C25A0A1-870B-4EA1-B1D0-B54AF5FAE1C1}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>